--- a/src/main/resources/xlsx/pcs/pr-ow3.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7035CF-F4F0-4796-89A8-B280023F8B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="2445" yWindow="1905" windowWidth="22905" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -112,7 +113,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国共产党北京师范大学第十三次党员代表大会代表情况统计表
+    <t>title
 （党员大会选举阶段，党委组织部汇总）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,6 +315,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,48 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -996,66 +997,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1076,12 +1077,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1091,9 +1092,9 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1108,9 +1109,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1123,9 +1124,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1138,14 +1139,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1155,9 +1156,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1172,9 +1173,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1187,9 +1188,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1202,22 +1203,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A9:B12"/>
@@ -1226,14 +1235,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1247,11 +1248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,66 +1266,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/xlsx/pcs/pr-ow3.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow3.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7035CF-F4F0-4796-89A8-B280023F8B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1905" windowWidth="22905" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="1905" windowWidth="22905" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>序号</t>
   </si>
@@ -115,13 +114,17 @@
   <si>
     <t>title
 （党员大会选举阶段，党委组织部汇总）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,9 +318,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,15 +357,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,15 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -997,66 +1000,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1077,12 +1080,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1092,9 +1095,9 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1109,9 +1112,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1124,9 +1127,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1139,14 +1142,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1156,9 +1159,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1173,9 +1176,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1188,9 +1191,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1203,22 +1206,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A4"/>
@@ -1227,14 +1238,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1248,11 +1251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,66 +1269,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/xlsx/pcs/pr-ow3.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1905" windowWidth="22905" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="2445" yWindow="1905" windowWidth="22905" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>其  中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,13 +103,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国共产党北京师范大学第十三次党员代表大会代表情况统计表
-（党员大会选举阶段，党委组织部汇总）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title
-（党员大会选举阶段，党委组织部汇总）</t>
+    <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +320,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,48 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,92 +1002,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1095,10 +1097,10 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1112,9 +1114,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1127,9 +1129,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1142,14 +1144,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1159,10 +1161,10 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
@@ -1176,9 +1178,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1191,9 +1193,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1206,22 +1208,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A9:B12"/>
@@ -1230,14 +1240,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1254,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1269,83 +1271,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
